--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamTimura/Desktop/GWU_HW/nfl_predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{516CA9AF-05D3-4040-9DC1-87E83F78ABEF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D242AEB8-D60B-3B43-A245-5EDDAD499928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14280"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="final_results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="3" r:id="rId1"/>
+    <sheet name="from_csv" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$G$33</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>49ers</t>
   </si>
@@ -149,12 +153,15 @@
   </si>
   <si>
     <t>Winner</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -768,7 +775,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -776,12 +783,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -792,6 +796,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1146,11 +1165,902 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D307F-7157-8F4D-B1D1-E05339654E93}">
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="20">
+        <v>5</v>
+      </c>
+      <c r="C1" s="20">
+        <v>4</v>
+      </c>
+      <c r="D1" s="20">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
+        <v>523</v>
+      </c>
+      <c r="C2" s="4">
+        <v>135</v>
+      </c>
+      <c r="D2" s="4">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>304</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>646</v>
+      </c>
+      <c r="C3" s="4">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>261</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>604</v>
+      </c>
+      <c r="C4" s="4">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>211</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>587</v>
+      </c>
+      <c r="C5" s="4">
+        <v>199</v>
+      </c>
+      <c r="D5" s="4">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5">
+        <v>172</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>603</v>
+      </c>
+      <c r="C6" s="4">
+        <v>118</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>263</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>425</v>
+      </c>
+      <c r="C7" s="4">
+        <v>265</v>
+      </c>
+      <c r="D7" s="4">
+        <v>216</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>645</v>
+      </c>
+      <c r="C8" s="4">
+        <v>157</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>180</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>488</v>
+      </c>
+      <c r="C9" s="4">
+        <v>303</v>
+      </c>
+      <c r="D9" s="4">
+        <v>207</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
+        <v>587</v>
+      </c>
+      <c r="C10" s="4">
+        <v>224</v>
+      </c>
+      <c r="D10" s="4">
+        <v>189</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4">
+        <v>480</v>
+      </c>
+      <c r="C11" s="4">
+        <v>512</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>560</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4">
+        <v>594</v>
+      </c>
+      <c r="C12" s="4">
+        <v>296</v>
+      </c>
+      <c r="D12" s="4">
+        <v>110</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>516</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>501</v>
+      </c>
+      <c r="C13" s="4">
+        <v>499</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>499</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>515</v>
+      </c>
+      <c r="C14" s="4">
+        <v>485</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>485</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>536</v>
+      </c>
+      <c r="C15" s="4">
+        <v>464</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>464</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1">
+      <c r="A16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>610</v>
+      </c>
+      <c r="C16" s="4">
+        <v>383</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>421</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17" thickBot="1">
+      <c r="A17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4">
+        <v>642</v>
+      </c>
+      <c r="C17" s="4">
+        <v>330</v>
+      </c>
+      <c r="D17" s="4">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>386</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>628</v>
+      </c>
+      <c r="C18" s="4">
+        <v>370</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>378</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>633</v>
+      </c>
+      <c r="C19" s="4">
+        <v>364</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>374</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>638</v>
+      </c>
+      <c r="C20" s="4">
+        <v>361</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>367</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>677</v>
+      </c>
+      <c r="C21" s="4">
+        <v>318</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>356</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>674</v>
+      </c>
+      <c r="C22" s="4">
+        <v>325</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>331</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4">
+        <v>674</v>
+      </c>
+      <c r="C23" s="4">
+        <v>326</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>326</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>692</v>
+      </c>
+      <c r="C24" s="4">
+        <v>307</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>313</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4">
+        <v>746</v>
+      </c>
+      <c r="C25" s="4">
+        <v>248</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>276</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4">
+        <v>743</v>
+      </c>
+      <c r="C26" s="4">
+        <v>256</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>266</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4">
+        <v>764</v>
+      </c>
+      <c r="C27" s="4">
+        <v>227</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4">
+        <v>865</v>
+      </c>
+      <c r="C28" s="4">
+        <v>121</v>
+      </c>
+      <c r="D28" s="4">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>878</v>
+      </c>
+      <c r="C29" s="4">
+        <v>122</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4">
+        <v>913</v>
+      </c>
+      <c r="C30" s="4">
+        <v>86</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4">
+        <v>936</v>
+      </c>
+      <c r="C31" s="4">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>945</v>
+      </c>
+      <c r="C32" s="4">
+        <v>55</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4">
+        <v>974</v>
+      </c>
+      <c r="C33" s="4">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G33" xr:uid="{0E1D4C4A-D176-334A-AAE3-588D575022F0}">
+    <sortState ref="A2:G33">
+      <sortCondition descending="1" ref="G1:G33"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1267,100 +2177,100 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>4526</v>
+        <v>501</v>
       </c>
       <c r="D2" s="4">
-        <v>4918</v>
+        <v>638</v>
       </c>
       <c r="E2" s="4">
-        <v>4996</v>
+        <v>743</v>
       </c>
       <c r="F2" s="4">
-        <v>5335</v>
+        <v>878</v>
       </c>
       <c r="G2" s="4">
-        <v>5360</v>
+        <v>865</v>
       </c>
       <c r="H2" s="4">
-        <v>5345</v>
+        <v>945</v>
       </c>
       <c r="I2" s="4">
-        <v>4943</v>
+        <v>610</v>
       </c>
       <c r="J2" s="4">
-        <v>5429</v>
+        <v>936</v>
       </c>
       <c r="K2" s="4">
-        <v>5399</v>
+        <v>913</v>
       </c>
       <c r="L2" s="4">
-        <v>5015</v>
+        <v>674</v>
       </c>
       <c r="M2" s="4">
-        <v>5215</v>
+        <v>746</v>
       </c>
       <c r="N2" s="4">
-        <v>5033</v>
+        <v>604</v>
       </c>
       <c r="O2" s="4">
-        <v>5027</v>
+        <v>764</v>
       </c>
       <c r="P2" s="4">
-        <v>5036</v>
+        <v>523</v>
       </c>
       <c r="Q2" s="4">
-        <v>4925</v>
+        <v>488</v>
       </c>
       <c r="R2" s="4">
-        <v>5117</v>
+        <v>633</v>
       </c>
       <c r="S2" s="4">
-        <v>4932</v>
+        <v>536</v>
       </c>
       <c r="T2" s="4">
-        <v>5438</v>
+        <v>974</v>
       </c>
       <c r="U2" s="4">
-        <v>5151</v>
+        <v>646</v>
       </c>
       <c r="V2" s="4">
-        <v>4810</v>
+        <v>677</v>
       </c>
       <c r="W2" s="4">
-        <v>4620</v>
+        <v>515</v>
       </c>
       <c r="X2" s="4">
-        <v>4890</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="4">
-        <v>5124</v>
+        <v>587</v>
       </c>
       <c r="Z2" s="4">
-        <v>5053</v>
+        <v>594</v>
       </c>
       <c r="AA2" s="4">
-        <v>4871</v>
+        <v>692</v>
       </c>
       <c r="AB2" s="4">
-        <v>4837</v>
+        <v>425</v>
       </c>
       <c r="AC2" s="4">
-        <v>4673</v>
+        <v>645</v>
       </c>
       <c r="AD2" s="4">
-        <v>4986</v>
+        <v>628</v>
       </c>
       <c r="AE2" s="4">
-        <v>5161</v>
+        <v>642</v>
       </c>
       <c r="AF2" s="4">
-        <v>4847</v>
+        <v>674</v>
       </c>
       <c r="AG2" s="4">
-        <v>4995</v>
+        <v>480</v>
       </c>
       <c r="AH2" s="4">
-        <v>5054</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1371,100 +2281,100 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>974</v>
+        <v>499</v>
       </c>
       <c r="D3" s="4">
-        <v>582</v>
+        <v>361</v>
       </c>
       <c r="E3" s="4">
-        <v>503</v>
+        <v>256</v>
       </c>
       <c r="F3" s="4">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H3" s="4">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="I3" s="4">
-        <v>551</v>
+        <v>383</v>
       </c>
       <c r="J3" s="4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K3" s="4">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L3" s="4">
+        <v>326</v>
+      </c>
+      <c r="M3" s="4">
+        <v>248</v>
+      </c>
+      <c r="N3" s="4">
+        <v>132</v>
+      </c>
+      <c r="O3" s="4">
+        <v>227</v>
+      </c>
+      <c r="P3" s="4">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>303</v>
+      </c>
+      <c r="R3" s="4">
+        <v>364</v>
+      </c>
+      <c r="S3" s="4">
+        <v>464</v>
+      </c>
+      <c r="T3" s="4">
+        <v>23</v>
+      </c>
+      <c r="U3" s="4">
+        <v>64</v>
+      </c>
+      <c r="V3" s="4">
+        <v>318</v>
+      </c>
+      <c r="W3" s="4">
         <v>485</v>
       </c>
-      <c r="M3" s="4">
-        <v>279</v>
-      </c>
-      <c r="N3" s="4">
-        <v>135</v>
-      </c>
-      <c r="O3" s="4">
-        <v>467</v>
-      </c>
-      <c r="P3" s="4">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>298</v>
-      </c>
-      <c r="R3" s="4">
-        <v>382</v>
-      </c>
-      <c r="S3" s="4">
-        <v>567</v>
-      </c>
-      <c r="T3" s="4">
-        <v>58</v>
-      </c>
-      <c r="U3" s="4">
-        <v>63</v>
-      </c>
-      <c r="V3" s="4">
-        <v>686</v>
-      </c>
-      <c r="W3" s="4">
-        <v>878</v>
-      </c>
       <c r="X3" s="4">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="Y3" s="4">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Z3" s="4">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="AA3" s="4">
-        <v>628</v>
+        <v>307</v>
       </c>
       <c r="AB3" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AC3" s="4">
-        <v>612</v>
+        <v>157</v>
       </c>
       <c r="AD3" s="4">
+        <v>370</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>330</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>325</v>
+      </c>
+      <c r="AG3" s="4">
         <v>512</v>
       </c>
-      <c r="AE3" s="4">
-        <v>323</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>651</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>500</v>
-      </c>
       <c r="AH3" s="4">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1481,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -1496,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
@@ -1505,23 +2415,23 @@
         <v>0</v>
       </c>
       <c r="M4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4">
+        <v>53</v>
+      </c>
+      <c r="O4" s="4">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>207</v>
+      </c>
+      <c r="R4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
-        <v>136</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6</v>
-      </c>
-      <c r="P4" s="4">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>276</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
       <c r="S4" s="4">
         <v>0</v>
       </c>
@@ -1529,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="4">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V4" s="4">
         <v>0</v>
@@ -1538,37 +2448,37 @@
         <v>0</v>
       </c>
       <c r="X4" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="4">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Z4" s="4">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA4" s="4">
         <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="AC4" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD4" s="4">
         <v>1</v>
       </c>
       <c r="AE4" s="4">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AF4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4">
         <v>3</v>
       </c>
       <c r="AH4" s="4">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1582,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1597,11 +2507,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
@@ -1609,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -1618,34 +2528,34 @@
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="V5" s="4">
         <v>3</v>
       </c>
       <c r="W5" s="4">
-        <v>2</v>
-      </c>
-      <c r="X5" s="5">
-        <v>283</v>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>263</v>
       </c>
       <c r="Y5" s="4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z5" s="4">
         <v>0</v>
@@ -1657,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="AD5" s="4">
         <v>1</v>
@@ -1666,453 +2576,459 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="17" thickBot="1">
+      <c r="A6" s="5">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="17" thickBot="1">
-      <c r="A6" s="6">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>211</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>304</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>261</v>
+      </c>
+      <c r="V6" s="5">
+        <v>2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>172</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="5">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="6">
-        <v>196</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>290</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
-        <v>246</v>
-      </c>
-      <c r="V6" s="6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>123</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>82</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="6">
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="17" thickBot="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
         <f>(C$3*$A$3)+(C$4*$A$4)+($A$5*C$5)+($A$6*C$6)</f>
-        <v>974</v>
-      </c>
-      <c r="D7" s="9">
+        <v>499</v>
+      </c>
+      <c r="D7" s="7">
         <f>(D$3*$A$3)+(D$4*$A$4)+($A$5*D$5)+($A$6*D$6)</f>
-        <v>582</v>
-      </c>
-      <c r="E7" s="9">
+        <v>367</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" ref="E7:AH7" si="0">(E$3*$A$3)+(E$4*$A$4)+($A$5*E$5)+($A$6*E$6)</f>
-        <v>505</v>
-      </c>
-      <c r="F7" s="9">
+        <v>266</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="G7" s="9">
+        <v>122</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="I7" s="9">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="J7" s="9">
+        <v>421</v>
+      </c>
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="K7" s="9">
+        <v>69</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="L7" s="9">
+        <v>88</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>2348</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>3275</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="0"/>
+        <v>733</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="0"/>
+        <v>2748</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="W7" s="7">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="M7" s="9">
+      <c r="X7" s="7">
         <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="N7" s="9">
+        <v>1792</v>
+      </c>
+      <c r="Y7" s="7">
         <f t="shared" si="0"/>
-        <v>2367</v>
-      </c>
-      <c r="O7" s="9">
+        <v>2059</v>
+      </c>
+      <c r="Z7" s="7">
         <f t="shared" si="0"/>
-        <v>479</v>
-      </c>
-      <c r="P7" s="9">
+        <v>516</v>
+      </c>
+      <c r="AA7" s="7">
         <f t="shared" si="0"/>
-        <v>3195</v>
-      </c>
-      <c r="Q7" s="9">
+        <v>313</v>
+      </c>
+      <c r="AB7" s="7">
         <f t="shared" si="0"/>
-        <v>860</v>
-      </c>
-      <c r="R7" s="9">
+        <v>1637</v>
+      </c>
+      <c r="AC7" s="7">
         <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="S7" s="9">
+        <v>1353</v>
+      </c>
+      <c r="AD7" s="7">
         <f t="shared" si="0"/>
-        <v>573</v>
-      </c>
-      <c r="T7" s="9">
+        <v>378</v>
+      </c>
+      <c r="AE7" s="7">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="U7" s="9">
+        <v>386</v>
+      </c>
+      <c r="AF7" s="7">
         <f t="shared" si="0"/>
-        <v>2647</v>
-      </c>
-      <c r="V7" s="9">
+        <v>331</v>
+      </c>
+      <c r="AG7" s="7">
         <f t="shared" si="0"/>
-        <v>714</v>
-      </c>
-      <c r="W7" s="9">
+        <v>560</v>
+      </c>
+      <c r="AH7" s="7">
         <f t="shared" si="0"/>
-        <v>890</v>
-      </c>
-      <c r="X7" s="9">
-        <f t="shared" si="0"/>
-        <v>2135</v>
-      </c>
-      <c r="Y7" s="9">
-        <f t="shared" si="0"/>
-        <v>1664</v>
-      </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="0"/>
-        <v>595</v>
-      </c>
-      <c r="AA7" s="9">
-        <f t="shared" si="0"/>
-        <v>634</v>
-      </c>
-      <c r="AB7" s="9">
-        <f t="shared" si="0"/>
-        <v>1716</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="0"/>
-        <v>1918</v>
-      </c>
-      <c r="AD7" s="9">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="AE7" s="9">
-        <f t="shared" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="AF7" s="9">
-        <f t="shared" si="0"/>
-        <v>663</v>
-      </c>
-      <c r="AG7" s="9">
-        <f t="shared" si="0"/>
-        <v>522</v>
-      </c>
-      <c r="AH7" s="9">
-        <f t="shared" si="0"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="C8" s="11">
-        <v>8</v>
-      </c>
-      <c r="D8" s="11">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11">
-        <v>21</v>
-      </c>
-      <c r="I8" s="11">
-        <v>17</v>
-      </c>
-      <c r="N8" s="11">
-        <v>4</v>
-      </c>
-      <c r="P8" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>10</v>
-      </c>
-      <c r="S8" s="11">
-        <v>18</v>
-      </c>
-      <c r="U8" s="11">
-        <v>2</v>
-      </c>
-      <c r="V8" s="11">
-        <v>11</v>
-      </c>
-      <c r="W8" s="11">
-        <v>9</v>
-      </c>
-      <c r="X8" s="11">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>14</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="11">
-        <v>19</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>13</v>
-      </c>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="E12" s="22"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:34">
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="F16" s="12"/>
-      <c r="G16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="5:13">
-      <c r="H17" s="13"/>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" ht="17" thickBot="1">
-      <c r="E18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" ht="17" thickBot="1">
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="5:13">
-      <c r="K20" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="5:13">
-      <c r="G21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="5:13">
-      <c r="E22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="5:13">
-      <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="5:13">
-      <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="5:13">
-      <c r="G25" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="5:13">
-      <c r="E26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="18"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="5:13">
-      <c r="E27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="5:13">
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
